--- a/InputFiles/ICDC/TC11_ICDC_MGT01_SampleType-NormalTissue.xlsx
+++ b/InputFiles/ICDC/TC11_ICDC_MGT01_SampleType-NormalTissue.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sohilz2/Automation/poc-07-15-2024/Commons_Automation/InputFiles/ICDC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{630BE229-EFA8-AF48-9F53-657C60F0D668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA3B5697-4241-FF4E-AA09-4524442F4FBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-47360" yWindow="-4940" windowWidth="42480" windowHeight="27840" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
+    <workbookView xWindow="35540" yWindow="-880" windowWidth="42480" windowHeight="27840" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -67,38 +67,7 @@
   </si>
   <si>
     <t>SELECT
-    COUNT(DISTINCT p.program_acronym) AS "Programs",
-    COUNT(DISTINCT st.clinical_study_designation) AS "Studies",
-    COUNT(DISTINCT c.case_id) AS "Cases",
-    COUNT(DISTINCT smp.sample_id) AS "Samples",
-    COUNT(DISTINCT cf.file_name) AS "Case Files",         
-    COUNT(DISTINCT sf.file_name) AS "Study Files" 
-FROM 
-    df_program p
-JOIN 
-    df_study st ON p.program_acronym = st."program.program_acronym"
-JOIN 
-    df_case c ON st.clinical_study_designation = c."study.clinical_study_designation"
-JOIN 
-    df_demographic dmg ON dmg."case.case_id" = c.case_id
-JOIN 
-    df_diagnosis diag ON diag."case.case_id" = c.case_id
-JOIN 
-    df_enrollment enr ON enr."case.case_id" = c.case_id
-JOIN 
-    df_sample smp ON smp."case.case_id" = c.case_id
-LEFT JOIN 
-    df_registration reg ON reg."case.case_id" = c.case_id
-LEFT JOIN 
-    df_case_file cf ON cf."sample.sample_id" = smp.sample_id
-LEFT JOIN 
-    df_study_file sf ON sf."study.clinical_study_designation" = st.clinical_study_designation
-WHERE 
-    st.clinical_study_designation = 'MGT01' AND smp.summarized_sample_type = 'Normal Tissue';</t>
-  </si>
-  <si>
-    <t>SELECT
-    DISTINCT c.case_id AS "Case ID",
+    DISTINCT c.case_record_id AS "Case ID",
     st.clinical_study_designation AS "Study Code",
     st.clinical_study_type AS "Study Type",
     dmg.breed AS "Breed",
@@ -124,19 +93,17 @@
 JOIN 
     df_study st ON c."study.clinical_study_designation" = st.clinical_study_designation
 JOIN 
-    df_demographic dmg ON dmg."case.case_id" = c.case_id
-JOIN 
-    df_diagnosis diag ON diag."case.case_id" = c.case_id
-JOIN 
-    df_enrollment enr ON enr."case.case_id" = c.case_id
+    df_demographic dmg ON dmg."case.case_record_id" = c.case_record_id
+JOIN 
+    df_diagnosis diag ON diag."case.case_record_id" = c.case_record_id
+JOIN 
+    df_enrollment enr ON enr."case.case_record_id" = c.case_record_id
 JOIN 
     df_program p ON st."program.program_acronym" = p.program_acronym
 JOIN 
-    df_sample smp ON smp."case.case_id" = c.case_id
+    df_sample smp ON smp."case.case_record_id" = c.case_record_id
 JOIN 
     df_publication pub ON pub."study.clinical_study_designation" = st.clinical_study_designation
-LEFT JOIN 
-    df_registration reg ON reg."case.case_id" = c.case_id
 LEFT JOIN 
     df_case_file cf ON cf."sample.sample_id" = smp.sample_id
 LEFT JOIN 
@@ -144,15 +111,15 @@
 LEFT JOIN
     df_cohort coh ON coh."study.clinical_study_designation" = st.clinical_study_designation
 WHERE
-     st.clinical_study_designation = 'MGT01' AND smp.summarized_sample_type = 'Normal Tissue'
+    st.clinical_study_designation = 'MGT01' AND smp.summarized_sample_type = 'Normal Tissue'
 ORDER BY 
-    c.case_id ASC
+    c.case_record_id ASC
 LIMIT 100;</t>
   </si>
   <si>
     <t>SELECT DISTINCT
     smp.sample_id AS "Sample ID",
-    c.case_id AS "Case ID",
+    c.case_record_id AS "Case ID",
     COALESCE(dmg.breed, '') AS "Breed",
     COALESCE(diag.disease_term, '') AS "Diagnosis",
     COALESCE(smp.sample_site, '') AS "Sample Site",
@@ -166,21 +133,19 @@
 FROM 
     df_sample smp
 JOIN 
-    df_case c ON smp."case.case_id" = c.case_id
+    df_case c ON smp."case.case_record_id" = c.case_record_id
 JOIN 
     df_publication pub ON pub."study.clinical_study_designation" = st.clinical_study_designation
 JOIN 
-    df_demographic dmg ON dmg."case.case_id" = c.case_id
-JOIN 
-    df_diagnosis diag ON diag."case.case_id" = c.case_id
-JOIN 
-    df_enrollment enr ON enr."case.case_id" = c.case_id
+    df_demographic dmg ON dmg."case.case_record_id" = c.case_record_id
+JOIN 
+    df_diagnosis diag ON diag."case.case_record_id" = c.case_record_id
+JOIN 
+    df_enrollment enr ON enr."case.case_record_id" = c.case_record_id
 JOIN 
     df_program p ON st."program.program_acronym" = p.program_acronym
 JOIN 
     df_study st ON c."study.clinical_study_designation" = st.clinical_study_designation
-LEFT JOIN 
-    df_registration reg ON reg."case.case_id" = c.case_id
 LEFT JOIN 
     df_case_file cf ON cf."sample.sample_id" = smp.sample_id
 LEFT JOIN 
@@ -192,8 +157,8 @@
 LIMIT 100;</t>
   </si>
   <si>
-    <t>SELECT DISTINCT
-    cf.file_name AS "File Name",
+    <t>SELECT 
+    DISTINCT cf.file_name AS "File Name",
     CASE
         WHEN cf.file_name LIKE '%.bai' THEN 'bai'
         WHEN cf.file_name LIKE '%.bam' THEN 'bam'
@@ -239,7 +204,7 @@
     'sample' AS "Association",
     cf.file_description AS "Description",
     smp.sample_id AS "Sample ID",
-    c.case_id AS "Case ID",
+    c.case_record_id AS "Case ID",
     dmg.breed AS "Breed",
     diag.disease_term AS "Diagnosis"
 FROM 
@@ -247,27 +212,25 @@
 JOIN 
     df_sample smp ON cf."sample.sample_id" = smp.sample_id
 JOIN 
-    df_case c ON smp."case.case_id" = c.case_id
+    df_case c ON smp."case.case_record_id" = c.case_record_id
 JOIN 
     df_study st ON c."study.clinical_study_designation" = st.clinical_study_designation
 JOIN 
     df_program p ON st."program.program_acronym" = p.program_acronym
 JOIN 
-    df_demographic dmg ON dmg."case.case_id" = c.case_id
-JOIN 
-    df_diagnosis diag ON diag."case.case_id" = c.case_id
-JOIN 
-    df_enrollment enr ON enr."case.case_id" = c.case_id
+    df_demographic dmg ON dmg."case.case_record_id" = c.case_record_id
+JOIN 
+    df_diagnosis diag ON diag."case.case_record_id" = c.case_record_id
+JOIN 
+    df_enrollment enr ON enr."case.case_record_id" = c.case_record_id
 JOIN 
     df_publication pub ON pub."study.clinical_study_designation" = st.clinical_study_designation
-LEFT JOIN 
-    df_registration reg ON reg."case.case_id" = c.case_id
 LEFT JOIN 
     df_study_file sf ON sf."study.clinical_study_designation" = st.clinical_study_designation
 WHERE
     st.clinical_study_designation = 'MGT01' AND smp.summarized_sample_type = 'Normal Tissue'
 ORDER BY 
-    sf.file_name ASC
+    cf.file_name ASC
 LIMIT 100;</t>
   </si>
   <si>
@@ -292,14 +255,14 @@
         ELSE 'Unknown'
     END AS "Format",
     CASE     
-        WHEN sf.original_file_size &gt;= 1024 * 1024 * 1024 THEN 
-            ROUND(sf.original_file_size / (1024.0 * 1024.0 * 1024.0), 2) || ' GB' 
-        WHEN sf.original_file_size &gt;= 1024 * 1024 THEN 
-            ROUND(sf.original_file_size / (1024.0 * 1024.0), 2) || ' MB' 
-        WHEN sf.original_file_size &gt;= 1024 THEN 
-            ROUND(sf.original_file_size / 1024.0, 2) || ' KB' 
+        WHEN sf.file_size &gt;= 1024 * 1024 * 1024 THEN 
+            ROUND(sf.file_size / (1024.0 * 1024.0 * 1024.0), 2) || ' GB' 
+        WHEN sf.file_size &gt;= 1024 * 1024 THEN 
+            ROUND(sf.file_size / (1024.0 * 1024.0), 2) || ' MB' 
+        WHEN sf.file_size &gt;= 1024 THEN 
+            ROUND(sf.file_size / 1024.0, 2) || ' KB' 
         ELSE 
-            ROUND(sf.original_file_size, 2) || ' Bytes' 
+            ROUND(sf.file_size, 2) || ' Bytes' 
     END AS "Size",
     st.clinical_study_designation AS "Study Code"
 FROM 
@@ -307,21 +270,19 @@
 JOIN 
     df_sample smp ON cf."sample.sample_id" = smp.sample_id
 JOIN 
-    df_case c ON smp."case.case_id" = c.case_id
+    df_case c ON smp."case.case_record_id" = c.case_record_id
 JOIN 
     df_study st ON c."study.clinical_study_designation" = st.clinical_study_designation
 JOIN 
     df_program p ON st."program.program_acronym" = p.program_acronym
 JOIN 
-    df_demographic dmg ON dmg."case.case_id" = c.case_id
-JOIN 
-    df_diagnosis diag ON diag."case.case_id" = c.case_id
-JOIN 
-    df_enrollment enr ON enr."case.case_id" = c.case_id
+    df_demographic dmg ON dmg."case.case_record_id" = c.case_record_id
+JOIN 
+    df_diagnosis diag ON diag."case.case_record_id" = c.case_record_id
+JOIN 
+    df_enrollment enr ON enr."case.case_record_id" = c.case_record_id
 JOIN 
     df_publication pub ON pub."study.clinical_study_designation" = st.clinical_study_designation
-LEFT JOIN 
-    df_registration reg ON reg."case.case_id" = c.case_id
 LEFT JOIN 
     df_study_file sf ON sf."study.clinical_study_designation" = st.clinical_study_designation
 WHERE
@@ -329,6 +290,35 @@
 ORDER BY 
     sf.file_name ASC
 LIMIT 100;</t>
+  </si>
+  <si>
+    <t>SELECT
+    COUNT(DISTINCT p.program_acronym) AS "Programs",
+    COUNT(DISTINCT st.clinical_study_designation) AS "Studies",
+    COUNT(DISTINCT c.case_record_id) AS "Cases",
+    COUNT(DISTINCT smp.sample_id) AS "Samples",
+    COUNT(DISTINCT cf.file_name) AS "Case Files",         
+    COUNT(DISTINCT sf.file_name) AS "Study Files" 
+FROM 
+    df_program p
+JOIN 
+    df_study st ON p.program_acronym = st."program.program_acronym"
+JOIN 
+    df_case c ON st.clinical_study_designation = c."study.clinical_study_designation"
+JOIN 
+    df_demographic dmg ON dmg."case.case_record_id" = c.case_record_id
+JOIN 
+    df_diagnosis diag ON diag."case.case_record_id" = c.case_record_id
+JOIN 
+    df_enrollment enr ON enr."case.case_record_id" = c.case_record_id
+JOIN 
+    df_sample smp ON smp."case.case_record_id" = c.case_record_id
+LEFT JOIN 
+    df_case_file cf ON cf."sample.sample_id" = smp.sample_id
+LEFT JOIN 
+    df_study_file sf ON sf."study.clinical_study_designation" = st.clinical_study_designation
+WHERE 
+    st.clinical_study_designation = 'MGT01' AND smp.summarized_sample_type = 'Normal Tissue';</t>
   </si>
 </sst>
 </file>
@@ -720,8 +710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C538400-E87C-4027-A918-A51DB80B3430}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -754,10 +744,10 @@
         <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -771,7 +761,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2"/>
     </row>
@@ -780,7 +770,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2"/>
     </row>
@@ -789,7 +779,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1"/>
     </row>
